--- a/各小组产品设计情况_t1.xlsx
+++ b/各小组产品设计情况_t1.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,13 +385,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2368</v>
+        <v>2631</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -402,143 +402,143 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2369</v>
+        <v>2632</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2370</v>
+        <v>2633</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2371</v>
+        <v>2634</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2372</v>
+        <v>2635</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2373</v>
+        <v>2636</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2374</v>
+        <v>2637</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2375</v>
+        <v>2638</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2376</v>
+        <v>2639</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2377</v>
+        <v>2640</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -547,24 +547,24 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2378</v>
+        <v>2641</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -572,13 +572,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2379</v>
+        <v>2642</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -589,10 +589,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2380</v>
+        <v>2643</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -606,24 +606,24 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2381</v>
+        <v>2644</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2382</v>
+        <v>2645</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -632,55 +632,55 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2383</v>
+        <v>2646</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2384</v>
+        <v>2647</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2385</v>
+        <v>2648</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -691,27 +691,27 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2386</v>
+        <v>2649</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>2387</v>
+        <v>2650</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -725,118 +725,118 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2388</v>
+        <v>2651</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>2389</v>
+        <v>2652</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2390</v>
+        <v>2653</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2391</v>
+        <v>2654</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2392</v>
+        <v>2655</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2393</v>
+        <v>2656</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2394</v>
+        <v>2657</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -844,78 +844,78 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>2395</v>
+        <v>2658</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2396</v>
+        <v>2659</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2397</v>
+        <v>2660</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2398</v>
+        <v>2661</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>2399</v>
+        <v>2662</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -924,18 +924,18 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2400</v>
+        <v>2663</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -946,13 +946,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2401</v>
+        <v>2664</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -963,24 +963,24 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>2402</v>
+        <v>2665</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>2403</v>
+        <v>2666</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -989,10 +989,265 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>2667</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>2668</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>2669</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>2670</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>2671</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>2672</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>2673</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>2674</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>2675</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>2676</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>2677</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>2678</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>2679</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>2680</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>2681</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/各小组产品设计情况_t1.xlsx
+++ b/各小组产品设计情况_t1.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,7 +385,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2631</v>
+        <v>3460</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -397,15 +397,15 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2632</v>
+        <v>3461</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -419,16 +419,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2633</v>
+        <v>3462</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -436,10 +436,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2634</v>
+        <v>3463</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -453,10 +453,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2635</v>
+        <v>3464</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2636</v>
+        <v>3465</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -487,16 +487,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2637</v>
+        <v>3466</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2638</v>
+        <v>3467</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2639</v>
+        <v>3468</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -538,16 +538,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2640</v>
+        <v>3469</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2641</v>
+        <v>3470</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -572,16 +572,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2642</v>
+        <v>3471</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -589,16 +589,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2643</v>
+        <v>3472</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -606,16 +606,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2644</v>
+        <v>3473</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -623,16 +623,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2645</v>
+        <v>3474</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -640,16 +640,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2646</v>
+        <v>3475</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2647</v>
+        <v>3476</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -674,16 +674,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2648</v>
+        <v>3477</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -691,16 +691,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2649</v>
+        <v>3478</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -708,16 +708,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>2650</v>
+        <v>3479</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -725,16 +725,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2651</v>
+        <v>3480</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -742,16 +742,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>2652</v>
+        <v>3481</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2653</v>
+        <v>3482</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2654</v>
+        <v>3483</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -785,15 +785,15 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2655</v>
+        <v>3484</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -802,24 +802,24 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2656</v>
+        <v>3485</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -827,13 +827,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2657</v>
+        <v>3486</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -844,13 +844,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>2658</v>
+        <v>3487</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -861,16 +861,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2659</v>
+        <v>3488</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2660</v>
+        <v>3489</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2661</v>
+        <v>3490</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>2662</v>
+        <v>3491</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2663</v>
+        <v>3492</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -946,13 +946,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2664</v>
+        <v>3493</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -963,13 +963,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>2665</v>
+        <v>3494</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -980,16 +980,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>2666</v>
+        <v>3495</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>2667</v>
+        <v>3496</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1014,16 +1014,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>2668</v>
+        <v>3497</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1031,16 +1031,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>2669</v>
+        <v>3498</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1048,205 +1048,18 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>2670</v>
+        <v>3499</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>2671</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>2672</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>2673</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>2674</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
-        <v>2675</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
-        <v>2676</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48">
-        <v>2677</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49">
-        <v>2678</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50">
-        <v>2679</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51">
-        <v>2680</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52">
-        <v>2681</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
         <v>0</v>
       </c>
     </row>
